--- a/biology/Botanique/Colchique_des_Pyrénées/Colchique_des_Pyrénées.xlsx
+++ b/biology/Botanique/Colchique_des_Pyrénées/Colchique_des_Pyrénées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colchique_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Colchique_des_Pyrénées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colchicum montanum
 Le 'colchique des Pyrénées'Colchicum montanum L., est une espèce de plante à fleurs du genre Colchicum (les colchiques). C'est une espèce miniature à tépales libres, qui fleurit à la fin de l’été.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colchique_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Colchique_des_Pyrénées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le colchique des Pyrénées est une plante vivace de 3 à 7 cm. Ce géophyte possède un corme de la taille d’un pois comme organe de réserve. La fleur lilas, plus claire à la base, rarement blanche, s’étale en étoile en cours de floraison. La floraison se situe entre juillet et octobre. Les feuilles canaliculées, qui mesurent 7 à 22 sur 0,3 à 1 cm, apparaissent à la fin de la floraison. Le fruit est une capsule, qui libère ses graines à la fin du printemps suivant.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colchique_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Colchique_des_Pyrénées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Merendera montana Lange
 Merendera pyrenaica (Pourr.) P. Fourn.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colchique_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Colchique_des_Pyrénées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La colchique des Pyrénées est une plante de montagnes de la péninsule ibérique et des Pyrénées centrales françaises, qu'on rencontre sur les pentes sèches et les prairies subalpines entre 900 et 2 500 m d’altitude.
 			Éclosion (été).
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Colchique_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Colchique_des_Pyrénées</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,9 +634,11 @@
           <t>Usage alimentaire ?</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tous les colchiques sont réputés hautement toxiques, mais l'ethnobotaniste François Couplan signale (tout en notant que, « proche des colchiques, il pourrait renfermer des alcaloïdes similaires »), signale que dans le nord-ouest de l’Espagne, ses tubercules « sont grignotés crûs, tels quels »[1]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tous les colchiques sont réputés hautement toxiques, mais l'ethnobotaniste François Couplan signale (tout en notant que, « proche des colchiques, il pourrait renfermer des alcaloïdes similaires »), signale que dans le nord-ouest de l’Espagne, ses tubercules « sont grignotés crûs, tels quels »
 </t>
         </is>
       </c>
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Colchique_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Colchique_des_Pyrénées</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,7 +667,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le colchique des Pyrénées est une plante d'ornement, ou plutôt de collection, car rarement cultivé dans les jardins de rocaille. Il est facilement multiplié par semis.
 </t>
